--- a/RCT.xlsx
+++ b/RCT.xlsx
@@ -8,14 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ml18692/projects/jlst-cpp-vgwas/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{82EFB55B-11F1-244A-A799-A02867CBDAE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DC4DD2E-BD66-1C4A-9303-3E0B2B0D203C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{85FE4507-72BE-3E48-B311-982FD43804AF}"/>
+    <workbookView xWindow="28800" yWindow="-1040" windowWidth="38400" windowHeight="21140" xr2:uid="{85FE4507-72BE-3E48-B311-982FD43804AF}"/>
   </bookViews>
   <sheets>
     <sheet name="RCT" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">RCT!$A$1:$N$16</definedName>
+  </definedNames>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="51">
   <si>
     <t>LDL</t>
   </si>
@@ -151,6 +154,42 @@
   </si>
   <si>
     <t>LAPLACE-2, 2014</t>
+  </si>
+  <si>
+    <t>Treatment at week 52</t>
+  </si>
+  <si>
+    <t>nmol/L</t>
+  </si>
+  <si>
+    <t>Treatment at week 8</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>K. A. Mitropoulos et al.</t>
+  </si>
+  <si>
+    <t>Simvastatin</t>
+  </si>
+  <si>
+    <t>HMGCR</t>
+  </si>
+  <si>
+    <t>mmol/L^-1</t>
+  </si>
+  <si>
+    <t>Heinonen et al, 1996</t>
+  </si>
+  <si>
+    <t>Atorvastatin</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>No placebo</t>
   </si>
 </sst>
 </file>
@@ -502,30 +541,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBB35079-AE68-BF42-A90D-CF1AF9BDA796}">
-  <dimension ref="A1:M16"/>
+  <dimension ref="A1:N18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="5.33203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="45.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.33203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.1640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13.1640625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="13.5" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="15.5" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="9.5" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="27.33203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.1640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="27.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -563,10 +601,13 @@
         <v>15</v>
       </c>
       <c r="M1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>17984165</v>
       </c>
@@ -604,11 +645,15 @@
       <c r="L2">
         <v>7533</v>
       </c>
-      <c r="M2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M2">
+        <f>SUM(K2:L2)</f>
+        <v>15067</v>
+      </c>
+      <c r="N2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>17984165</v>
       </c>
@@ -646,11 +691,15 @@
       <c r="L3">
         <v>7533</v>
       </c>
-      <c r="M3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M3">
+        <f t="shared" ref="M3:M18" si="0">SUM(K3:L3)</f>
+        <v>15067</v>
+      </c>
+      <c r="N3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>23126252</v>
       </c>
@@ -687,11 +736,15 @@
       <c r="L4">
         <v>7938</v>
       </c>
-      <c r="M4" t="s">
+      <c r="M4">
+        <f t="shared" si="0"/>
+        <v>15871</v>
+      </c>
+      <c r="N4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>23126252</v>
       </c>
@@ -728,11 +781,15 @@
       <c r="L5">
         <v>7938</v>
       </c>
-      <c r="M5" t="s">
+      <c r="M5">
+        <f>SUM(K5:L5)</f>
+        <v>15871</v>
+      </c>
+      <c r="N5" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>28514624</v>
       </c>
@@ -769,11 +826,15 @@
       <c r="L6">
         <v>6038</v>
       </c>
-      <c r="M6" t="s">
+      <c r="M6">
+        <f t="shared" si="0"/>
+        <v>12092</v>
+      </c>
+      <c r="N6" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>28514624</v>
       </c>
@@ -810,11 +871,15 @@
       <c r="L7">
         <v>6038</v>
       </c>
-      <c r="M7" t="s">
+      <c r="M7">
+        <f t="shared" si="0"/>
+        <v>12092</v>
+      </c>
+      <c r="N7" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>28847206</v>
       </c>
@@ -851,8 +916,15 @@
       <c r="L8">
         <v>15225</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M8">
+        <f t="shared" si="0"/>
+        <v>167479</v>
+      </c>
+      <c r="N8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>28847206</v>
       </c>
@@ -889,8 +961,15 @@
       <c r="L9">
         <v>15225</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M9">
+        <f t="shared" si="0"/>
+        <v>167479</v>
+      </c>
+      <c r="N9" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>26586732</v>
       </c>
@@ -927,11 +1006,15 @@
       <c r="L10">
         <v>29</v>
       </c>
-      <c r="M10" t="s">
+      <c r="M10">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="N10" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>28304224</v>
       </c>
@@ -947,8 +1030,15 @@
       <c r="E11" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N11" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>30403574</v>
       </c>
@@ -964,23 +1054,154 @@
       <c r="E12" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N12" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>24678979</v>
+      </c>
       <c r="B13" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="C13" t="s">
+        <v>29</v>
+      </c>
+      <c r="D13" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13" t="s">
+        <v>0</v>
+      </c>
+      <c r="F13" t="s">
+        <v>13</v>
+      </c>
+      <c r="G13">
+        <v>107.9</v>
+      </c>
+      <c r="H13">
+        <v>50.9</v>
+      </c>
+      <c r="I13">
+        <f>1.9*SQRT(K13)</f>
+        <v>30.871345937616649</v>
+      </c>
+      <c r="J13">
+        <f>1.4*SQRT(L13)</f>
+        <v>32.593250835103881</v>
+      </c>
+      <c r="K13">
+        <v>264</v>
+      </c>
+      <c r="L13">
+        <v>542</v>
+      </c>
+      <c r="M13">
+        <f t="shared" si="0"/>
+        <v>806</v>
+      </c>
+      <c r="N13" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>27846344</v>
+      </c>
       <c r="B14" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="C14" t="s">
+        <v>29</v>
+      </c>
+      <c r="D14" t="s">
+        <v>24</v>
+      </c>
+      <c r="E14" t="s">
+        <v>0</v>
+      </c>
+      <c r="F14" t="s">
+        <v>13</v>
+      </c>
+      <c r="G14">
+        <v>93</v>
+      </c>
+      <c r="H14">
+        <v>36.6</v>
+      </c>
+      <c r="I14">
+        <f>SQRT(K14)*(95.4-90.5)/3.92</f>
+        <v>27.500000000000032</v>
+      </c>
+      <c r="J14">
+        <f>SQRT(L14)*(38.8-34.5)/3.92</f>
+        <v>24.132653061224474</v>
+      </c>
+      <c r="K14">
+        <v>484</v>
+      </c>
+      <c r="L14">
+        <v>484</v>
+      </c>
+      <c r="M14">
+        <f t="shared" si="0"/>
+        <v>968</v>
+      </c>
+      <c r="N14" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>31479722</v>
+      </c>
       <c r="B15" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="C15" t="s">
+        <v>29</v>
+      </c>
+      <c r="D15" t="s">
+        <v>24</v>
+      </c>
+      <c r="E15" t="s">
+        <v>0</v>
+      </c>
+      <c r="F15" t="s">
+        <v>40</v>
+      </c>
+      <c r="G15">
+        <v>2.06</v>
+      </c>
+      <c r="H15">
+        <v>0.79</v>
+      </c>
+      <c r="I15">
+        <v>0.63</v>
+      </c>
+      <c r="J15">
+        <v>0.46</v>
+      </c>
+      <c r="K15">
+        <v>149</v>
+      </c>
+      <c r="L15">
+        <v>141</v>
+      </c>
+      <c r="M15">
+        <f t="shared" si="0"/>
+        <v>290</v>
+      </c>
+      <c r="N15" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>24825642</v>
       </c>
@@ -996,8 +1217,108 @@
       <c r="E16" t="s">
         <v>0</v>
       </c>
+      <c r="M16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N16" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>9043839</v>
+      </c>
+      <c r="B17" t="s">
+        <v>43</v>
+      </c>
+      <c r="C17" t="s">
+        <v>44</v>
+      </c>
+      <c r="D17" t="s">
+        <v>45</v>
+      </c>
+      <c r="E17" t="s">
+        <v>0</v>
+      </c>
+      <c r="F17" t="s">
+        <v>46</v>
+      </c>
+      <c r="G17">
+        <v>4.21</v>
+      </c>
+      <c r="H17">
+        <v>2.4700000000000002</v>
+      </c>
+      <c r="I17">
+        <v>0.91</v>
+      </c>
+      <c r="J17">
+        <v>0.65</v>
+      </c>
+      <c r="K17">
+        <v>51</v>
+      </c>
+      <c r="L17">
+        <v>54</v>
+      </c>
+      <c r="M17">
+        <f t="shared" si="0"/>
+        <v>105</v>
+      </c>
+      <c r="N17" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>8930429</v>
+      </c>
+      <c r="B18" t="s">
+        <v>47</v>
+      </c>
+      <c r="C18" t="s">
+        <v>48</v>
+      </c>
+      <c r="D18" t="s">
+        <v>45</v>
+      </c>
+      <c r="E18" t="s">
+        <v>0</v>
+      </c>
+      <c r="F18" t="s">
+        <v>13</v>
+      </c>
+      <c r="G18">
+        <v>194</v>
+      </c>
+      <c r="H18">
+        <v>122</v>
+      </c>
+      <c r="I18">
+        <f>SQRT(K18)*6</f>
+        <v>24.738633753705962</v>
+      </c>
+      <c r="J18">
+        <f>SQRT(L18)*4.5</f>
+        <v>19.091883092036781</v>
+      </c>
+      <c r="K18">
+        <v>17</v>
+      </c>
+      <c r="L18">
+        <v>18</v>
+      </c>
+      <c r="M18">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="N18" t="s">
+        <v>49</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>